--- a/observations/TOP_ObservationLog.xlsx
+++ b/observations/TOP_ObservationLog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,27 +868,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>WASP-135b</t>
+          <t>HAT-P-36b</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-03-11</t>
+          <t>2023-03-09</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sheng-Ting Huang</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NTHUOBS</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-135b_6044_2023-03-11_HCHS_ac_1275_Lum</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-36b_6379_2023-03-09_KMSHO_1103_Lum</t>
         </is>
       </c>
     </row>
@@ -900,34 +900,34 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-04-15</t>
+          <t>2023-03-11</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Sheng-Ting Huang</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHUOBS</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-135b_6069_2023-04-15_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-135b_6044_2023-03-11_HCHS_ac_1275_Lum</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HAT-P-59b</t>
+          <t>WASP-135b</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-05-03</t>
+          <t>2023-04-15</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -942,19 +942,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-59b_2057_2023-05-03_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-135b_6069_2023-04-15_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WASP-107b</t>
+          <t>HAT-P-59b</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-05-03</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -969,19 +969,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-107b_1490_2023-05-08_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-59b_2057_2023-05-03_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Qatar-6b</t>
+          <t>WASP-107b</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -996,24 +996,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-6b_2437_2023-05-26_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-107b_1490_2023-05-08_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CoRoT-11b</t>
+          <t>Qatar-6b</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Wen-Hsin Chen</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1023,24 +1023,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/CoRoT-11b_2854_2023-05-27_whchen_1329_Lum</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-6b_2437_2023-05-26_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HAT-P-2b</t>
+          <t>CoRoT-11b</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mu-Chen Hsieh</t>
+          <t>Wen-Hsin Chen</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1050,24 +1050,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-2b_1517_2023-05-29_JerryHsieh_1377_R</t>
+          <t>https://www.exoclock.space/database/observations/CoRoT-11b_2854_2023-05-27_whchen_1329_Lum</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TrES-3b</t>
+          <t>HAT-P-2b</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Mu-Chen Hsieh</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1077,19 +1077,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TrES-3b_6545_2023-05-30_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-2b_1517_2023-05-29_JerryHsieh_1377_R</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>WASP-90b</t>
+          <t>TrES-3b</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-90b_2192_2023-07-06_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/TrES-3b_6545_2023-05-30_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HATS-50b</t>
+          <t>WASP-90b</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1158,19 +1158,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HATS-50b_2242_2023-07-07_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-90b_2192_2023-07-06_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TrES-3b</t>
+          <t>HATS-50b</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1185,19 +1185,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TrES-3b_6575_2023-07-08_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/HATS-50b_2242_2023-07-07_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>WASP-80b</t>
+          <t>TrES-3b</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-07-08</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1212,19 +1212,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-80b_2802_2023-07-15_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/TrES-3b_6575_2023-07-08_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>WASP-93b</t>
+          <t>WASP-80b</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1239,19 +1239,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-93b_3156_2023-08-13_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-80b_2802_2023-07-15_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>WASP-67b</t>
+          <t>WASP-93b</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1266,73 +1266,73 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-67b_1869_2023-08-14_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-93b_3156_2023-08-13_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Qatar-1b</t>
+          <t>WASP-67b</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BingSyun Wu</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Huiwen High School Observatory, Taiwan</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-1b_6116_2023-10-12_xun_1372_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-67b_1869_2023-08-14_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>WASP-59b</t>
+          <t>Qatar-1b</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>BingSyun Wu</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>Huiwen High School Observatory, Taiwan</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-59b_1098_2023-10-24_Altair1999_1568_V</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-1b_6116_2023-10-12_xun_1372_Lum</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>WASP-12b</t>
+          <t>WASP-59b</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1347,19 +1347,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-12b_7969_2023-10-25_Altair1999_1568_V</t>
+          <t>https://www.exoclock.space/database/observations/WASP-59b_1098_2023-10-24_Altair1999_1568_V</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>WASP-2b</t>
+          <t>WASP-12b</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-2b_4043_2023-10-30_Altair1999_1568_Clear</t>
+          <t>https://www.exoclock.space/database/observations/WASP-12b_7969_2023-10-25_Altair1999_1568_V</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>WASP-12b</t>
+          <t>WASP-2b</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-11-05</t>
+          <t>2023-10-30</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-12b_7979_2023-11-05_Altair1999_1589_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-2b_4043_2023-10-30_Altair1999_1568_Clear</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-11-17</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1428,14 +1428,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-12b_7990_2023-11-17_Altair1999_1589_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-12b_7979_2023-11-05_Altair1999_1589_Lum</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HAT-P-62b</t>
+          <t>WASP-12b</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1450,24 +1450,24 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-62b_3296_2023-11-17_Altair1999_1568_Clear</t>
+          <t>https://www.exoclock.space/database/observations/WASP-12b_7990_2023-11-17_Altair1999_1589_Lum</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>WASP-10b</t>
+          <t>HAT-P-62b</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023-11-19</t>
+          <t>2023-11-17</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1482,19 +1482,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-10b_2820_2023-11-19_Altair1999_1568_Clear</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-62b_3296_2023-11-17_Altair1999_1568_Clear</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TOI-2154b</t>
+          <t>WASP-10b</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-11-19</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1504,19 +1504,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-2154b_2281_2023-11-20_Altair1999_1589_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-10b_2820_2023-11-19_Altair1999_1568_Clear</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EPIC246851721b</t>
+          <t>TOI-2154b</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1531,24 +1531,24 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/EPIC246851721b_1411_2023-11-20_Altair1999_1568_Clear</t>
+          <t>https://www.exoclock.space/database/observations/TOI-2154b_2281_2023-11-20_Altair1999_1589_Lum</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TOI-2046b</t>
+          <t>EPIC246851721b</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1558,24 +1558,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-2046b_5827_2023-11-21_Altair1999_1589_Lum</t>
+          <t>https://www.exoclock.space/database/observations/EPIC246851721b_1411_2023-11-20_Altair1999_1568_Clear</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>K2-29b</t>
+          <t>TOI-2046b</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-11-22</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1585,24 +1585,24 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-29b_2677_2023-11-22_Altair1999_1568_Clear</t>
+          <t>https://www.exoclock.space/database/observations/TOI-2046b_5827_2023-11-21_Altair1999_1589_Lum</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>WASP-32b</t>
+          <t>K2-29b</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2023-11-24</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1612,24 +1612,24 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-32b_3210_2023-11-24_Altair1999_1589_Lum</t>
+          <t>https://www.exoclock.space/database/observations/K2-29b_2677_2023-11-22_Altair1999_1568_Clear</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TOI-2046b</t>
+          <t>WASP-32b</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-11-24</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1639,51 +1639,51 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-2046b_5831_2023-11-27_Altair1999_1568_Clear</t>
+          <t>https://www.exoclock.space/database/observations/WASP-32b_3210_2023-11-24_Altair1999_1589_Lum</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HAT-P-32b</t>
+          <t>TOI-2046b</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-32b_4061_2023-11-28_KMSHO_1635_Clear</t>
+          <t>https://www.exoclock.space/database/observations/TOI-2046b_5831_2023-11-27_Altair1999_1568_Clear</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TOI-3629b</t>
+          <t>HAT-P-32b</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2023-12-09</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1698,19 +1698,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-3629b_2220_2023-12-09_KMSHO_1635_Clear</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-32b_4061_2023-11-28_KMSHO_1635_Clear</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HAT-P-62b</t>
+          <t>TOI-3629b</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-12-09</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1725,73 +1725,73 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-62b_3305_2023-12-11_KMSHO_1635_Clear</t>
+          <t>https://www.exoclock.space/database/observations/TOI-3629b_2220_2023-12-09_KMSHO_1635_Clear</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HAT-P-32b</t>
+          <t>HAT-P-62b</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2023-12-13</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-32b_4068_2023-12-13_Altair1999_1568_Clear</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-62b_3305_2023-12-11_KMSHO_1635_Clear</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HAT-P-61b</t>
+          <t>HAT-P-32b</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2023-12-13</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-61b_4606_2023-12-28_KMSHO_1635_Clear</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-32b_4068_2023-12-13_Altair1999_1568_Clear</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TOI-3714b</t>
+          <t>HAT-P-61b</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2023-12-28</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1806,73 +1806,73 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-3714b_4067_2023-12-31_KMSHO_1635_Clear</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-61b_4606_2023-12-28_KMSHO_1635_Clear</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TOI-2154b</t>
+          <t>TOI-3714b</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-2154b_2292_2024-01-01_Altair1999_1568_Clear</t>
+          <t>https://www.exoclock.space/database/observations/TOI-3714b_4067_2023-12-31_KMSHO_1635_Clear</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HAT-P-25b</t>
+          <t>TOI-2154b</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-25b_2402_2024-01-10_KMSHO_1635_Clear</t>
+          <t>https://www.exoclock.space/database/observations/TOI-2154b_2292_2024-01-01_Altair1999_1568_Clear</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>WASP-11b</t>
+          <t>HAT-P-25b</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1887,19 +1887,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-11b_2357_2024-01-11_KMSHO_1635_Clear</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-25b_2402_2024-01-10_KMSHO_1635_Clear</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>K2-30b</t>
+          <t>WASP-11b</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1914,19 +1914,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-30b_2141_2024-01-12_KMSHO_1635_Clear</t>
+          <t>https://www.exoclock.space/database/observations/WASP-11b_2357_2024-01-11_KMSHO_1635_Clear</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>K2-25b</t>
+          <t>K2-30b</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024-01-14</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1941,46 +1941,46 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-25b_2519_2024-01-14_KMSHO_1635_Clear</t>
+          <t>https://www.exoclock.space/database/observations/K2-30b_2141_2024-01-12_KMSHO_1635_Clear</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HAT-P-33b</t>
+          <t>K2-25b</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-14</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-33b_2527_2024-01-16_Altair1999_1568_Clear</t>
+          <t>https://www.exoclock.space/database/observations/K2-25b_2519_2024-01-14_KMSHO_1635_Clear</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Gaia-1b</t>
+          <t>HAT-P-33b</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024-02-11</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1990,24 +1990,24 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Gaia-1b_2885_2024-02-11_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-33b_2527_2024-01-16_Altair1999_1568_Clear</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TOI-2154b</t>
+          <t>Gaia-1b</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-02-11</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2017,19 +2017,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-2154b_2303_2024-02-12_Altair1999_1568_R</t>
+          <t>https://www.exoclock.space/database/observations/Gaia-1b_2885_2024-02-11_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HAT-P-69b</t>
+          <t>TOI-2154b</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2044,24 +2044,24 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-69b_1840_2024-02-12_Altair1999_1323_B</t>
+          <t>https://www.exoclock.space/database/observations/TOI-2154b_2303_2024-02-12_Altair1999_1568_R</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>WASP-49b</t>
+          <t>HAT-P-69b</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2076,19 +2076,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-49b_3166_2024-02-13_Altair1999_1323_B</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-69b_1840_2024-02-12_Altair1999_1323_B</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>XO-2Nb</t>
+          <t>WASP-49b</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2098,12 +2098,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/XO-2Nb_3367_2024-02-14_Altair1999_1568_B</t>
+          <t>https://www.exoclock.space/database/observations/WASP-49b_3166_2024-02-13_Altair1999_1323_B</t>
         </is>
       </c>
     </row>
@@ -2137,34 +2137,34 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GJ3470b</t>
+          <t>XO-2Nb</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Kuo-Pin Huang</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Remote KMSH observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/GJ3470b_2647_2024-03-08_kphuang_2112_R</t>
+          <t>https://www.exoclock.space/database/observations/XO-2Nb_3367_2024-02-14_Altair1999_1568_B</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HAT-P-22b</t>
+          <t>GJ3470b</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2174,44 +2174,44 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Hao-Yuan Duan</t>
+          <t>Kuo-Pin Huang</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Lulin Observatory, Taiwan</t>
+          <t>Remote KMSH observatory</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-22b_2749_2024-03-08_hyduan_2152_I</t>
+          <t>https://www.exoclock.space/database/observations/GJ3470b_2647_2024-03-08_kphuang_2112_R</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HAT-P-36b</t>
+          <t>HAT-P-22b</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Hao-Yuan Duan</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>Lulin Observatory, Taiwan</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-36b_6657_2024-03-12_Altair1999_1568_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-22b_2749_2024-03-08_hyduan_2152_I</t>
         </is>
       </c>
     </row>
@@ -2299,27 +2299,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>WASP-104b</t>
+          <t>HAT-P-36b</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5038_2024-03-19_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-36b_6657_2024-03-12_Altair1999_1568_R</t>
         </is>
       </c>
     </row>
@@ -2353,34 +2353,34 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WASP-43b</t>
+          <t>WASP-104b</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Hao-Yuan Duan</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Lulin Observatory, Taiwan</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-43b_10873_2024-03-20_hyduan_2152_I</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5038_2024-03-19_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>WASP-85Ab</t>
+          <t>WASP-43b</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2395,51 +2395,51 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Taipei Astronomical Museum, Taiwan</t>
+          <t>Lulin Observatory, Taiwan</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-85Ab_3330_2024-03-20_hyduan_2184_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-43b_10873_2024-03-20_hyduan_2152_I</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>WASP-43b</t>
+          <t>WASP-85Ab</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Hao-Yuan Duan</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>Taipei Astronomical Museum, Taiwan</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-43b_10879_2024-03-25_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-85Ab_3330_2024-03-20_hyduan_2184_R</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Qatar-1b</t>
+          <t>WASP-43b</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-1b_6238_2024-04-02_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-43b_10879_2024-03-25_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -2476,12 +2476,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-6b_2526_2024-04-02_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-6b_2526_2024-04-02_Altair1999_1568_R</t>
         </is>
       </c>
     </row>
@@ -2503,24 +2503,24 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-6b_2526_2024-04-02_Altair1999_1568_R</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-6b_2526_2024-04-02_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>WASP-103b</t>
+          <t>Qatar-1b</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2530,24 +2530,24 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-103b_9571_2024-04-03_Altair1999_1568_Clear</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-1b_6238_2024-04-02_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WASP-92b</t>
+          <t>WASP-103b</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2557,24 +2557,24 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-92b_4089_2024-05-08_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-103b_9571_2024-04-03_Altair1999_1568_Clear</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WASP-24b</t>
+          <t>WASP-92b</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-24b_3801_2024-05-14_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-92b_4089_2024-05-08_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -2623,12 +2623,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>WASP-74b</t>
+          <t>WASP-24b</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2643,19 +2643,19 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-74b_4182_2024-06-23_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-24b_3801_2024-05-14_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HAT-P-55b</t>
+          <t>WASP-74b</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2670,73 +2670,73 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-55b_2494_2024-06-26_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-74b_4182_2024-06-23_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>TrES-3b</t>
+          <t>HAT-P-55b</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Hao-Yuan Duan</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Lulin Observatory, Taiwan</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TrES-3b_6852_2024-07-04_hyduan_2152_B</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-55b_2494_2024-06-26_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>WASP-75b</t>
+          <t>TrES-3b</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Hao-Yuan Duan</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>Lulin Observatory, Taiwan</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-75b_3604_2024-07-08_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/TrES-3b_6852_2024-07-04_hyduan_2152_B</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>K2-31b</t>
+          <t>WASP-75b</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2751,19 +2751,19 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-31b_7120_2024-07-09_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-75b_3604_2024-07-08_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HAT-P-1b</t>
+          <t>K2-31b</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-09</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2778,19 +2778,19 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-1b_2007_2024-07-16_Altair1999_1323_R</t>
+          <t>https://www.exoclock.space/database/observations/K2-31b_7120_2024-07-09_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TOI-4463Ab</t>
+          <t>HAT-P-1b</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2805,19 +2805,19 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-4463Ab_3112_2024-07-18_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-1b_2007_2024-07-16_Altair1999_1323_R</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>WASP-6b</t>
+          <t>TOI-4463Ab</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2832,19 +2832,19 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-6b_2671_2024-08-02_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/TOI-4463Ab_3112_2024-07-18_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>WASP-2b</t>
+          <t>WASP-6b</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2859,19 +2859,19 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-2b_4175_2024-08-09_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-6b_2671_2024-08-02_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>WASP-60b</t>
+          <t>WASP-2b</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-60b_2088_2024-08-11_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-2b_4175_2024-08-09_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>WASP-28b</t>
+          <t>WASP-60b</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2908,24 +2908,24 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-28b_2641_2024-08-27_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-60b_2088_2024-08-11_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>WASP-114b</t>
+          <t>WASP-28b</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2940,19 +2940,19 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-114b_5817_2024-09-01_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-28b_2641_2024-08-27_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HATS-72b</t>
+          <t>LHS1140c</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2962,24 +2962,24 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>Lulin Observatory</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HATS-72b_1229_2024-09-03_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/LHS1140c_2383_2024-08-27_Altair1999_2155_R</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>WASP-33b</t>
+          <t>HAT-P-28b</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2994,19 +2994,19 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-33b_7390_2024-09-06_Altair1999_2435_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-28b_2765_2024-08-31_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HAT-P-1b</t>
+          <t>WASP-114b</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-01</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3021,19 +3021,19 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-1b_2020_2024-09-12_Altair1999_2435_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-114b_5817_2024-09-01_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HAT-P-49b</t>
+          <t>HATS-72b</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3043,39 +3043,498 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-49b_3351_2024-09-12_Altair1999_1323_R</t>
+          <t>https://www.exoclock.space/database/observations/HATS-72b_1229_2024-09-03_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>WASP-33b</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/WASP-33b_7390_2024-09-06_Altair1999_2435_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>HAT-P-49b</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>NTHU Observatory</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-49b_3351_2024-09-12_Altair1999_1323_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>HAT-P-1b</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-1b_2020_2024-09-12_Altair1999_2435_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
           <t>WASP-76b</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>2024-09-15</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Yen-Hsing Lin</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>Starry House Observatory</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>https://www.exoclock.space/database/observations/WASP-76b_4986_2024-09-15_Altair1999_2435_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>WASP-156b</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/WASP-156b_2357_2024-10-05_Altair1999_2435_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>GPX-1b</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/GPX-1b_5186_2024-10-09_Altair1999_2435_Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>KELT-1b</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>NTHU Observatory</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/KELT-1b_7432_2024-10-10_Altair1999_1323_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>WASP-52b</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/WASP-52b_5172_2024-10-11_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>HAT-P-32b</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-32b_4209_2024-10-11_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Gaia-1b</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/Gaia-1b_2965_2024-10-12_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>HAT-P-53b</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-53b_4615_2024-10-14_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>HAT-P-53b</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>NTHU Observatory</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-53b_4615_2024-10-14_Altair1999_1323_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>WASP-12b</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/WASP-12b_8297_2024-10-17_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>HAT-P-62b</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-62b_3423_2024-10-18_Altair1999_2435_Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>CoRoT-1b</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2024-10-20</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/CoRoT-1b_6003_2024-10-20_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>KELT-1b</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>NTHU Observatory</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/KELT-1b_7441_2024-10-21_Altair1999_1323_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>KELT-1b</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/KELT-1b_7441_2024-10-21_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>TOI-3714b</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/TOI-3714b_4204_2024-10-21_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>

--- a/observations/TOP_ObservationLog.xlsx
+++ b/observations/TOP_ObservationLog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,7 +1111,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Qatar-1b</t>
+          <t>WASP-90b</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1131,14 +1131,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-1b_6047_2023-07-06_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-90b_2192_2023-07-06_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>WASP-90b</t>
+          <t>Qatar-1b</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-90b_2192_2023-07-06_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-1b_6047_2023-07-06_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>WASP-12b</t>
+          <t>HAT-P-62b</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1450,19 +1450,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-12b_7990_2023-11-17_Altair1999_1589_Lum</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-62b_3296_2023-11-17_Altair1999_1568_Clear</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HAT-P-62b</t>
+          <t>WASP-12b</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1477,12 +1477,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-62b_3296_2023-11-17_Altair1999_1568_Clear</t>
+          <t>https://www.exoclock.space/database/observations/WASP-12b_7990_2023-11-17_Altair1999_1589_Lum</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>WASP-104b</t>
+          <t>HAT-P-36b</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2282,24 +2282,24 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Hao-Yuan Duan</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Lulin Observatory, Taiwan</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_hyduan_2152_I</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-36b_6657_2024-03-12_Altair1999_1568_R</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HAT-P-36b</t>
+          <t>WASP-104b</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2309,17 +2309,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Hao-Yuan Duan</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>Lulin Observatory, Taiwan</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-36b_6657_2024-03-12_Altair1999_1568_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_hyduan_2152_I</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TrES-3b</t>
+          <t>WASP-24b</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2611,19 +2611,19 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TrES-3b_6813_2024-05-14_Altair1999_1568_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-24b_3801_2024-05-14_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>WASP-24b</t>
+          <t>TrES-3b</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2638,12 +2638,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-24b_3801_2024-05-14_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/TrES-3b_6813_2024-05-14_Altair1999_1568_R</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>WASP-28b</t>
+          <t>LHS1140c</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2935,19 +2935,19 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>Lulin Observatory</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-28b_2641_2024-08-27_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/LHS1140c_2383_2024-08-27_Altair1999_2155_R</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>LHS1140c</t>
+          <t>WASP-28b</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2962,12 +2962,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Lulin Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/LHS1140c_2383_2024-08-27_Altair1999_2155_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-28b_2641_2024-08-27_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
@@ -3535,6 +3535,114 @@
       <c r="E115" t="inlineStr">
         <is>
           <t>https://www.exoclock.space/database/observations/TOI-3714b_4204_2024-10-21_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>HAT-P-25b</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-25b_2482_2024-10-28_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>HAT-P-58b</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Shun-Chia Yang</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-58b_2260_2024-11-05_scyang_2506_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>HAT-P-16b</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-16b_3269_2024-11-06_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>TOI-3714b</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/TOI-3714b_4216_2024-11-16_KMSHO_1635_R</t>
         </is>
       </c>
     </row>

--- a/observations/TOP_ObservationLog.xlsx
+++ b/observations/TOP_ObservationLog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1516,7 +1516,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TOI-2154b</t>
+          <t>EPIC246851721b</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1531,19 +1531,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-2154b_2281_2023-11-20_Altair1999_1589_Lum</t>
+          <t>https://www.exoclock.space/database/observations/EPIC246851721b_1411_2023-11-20_Altair1999_1568_Clear</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EPIC246851721b</t>
+          <t>TOI-2154b</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1558,12 +1558,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/EPIC246851721b_1411_2023-11-20_Altair1999_1568_Clear</t>
+          <t>https://www.exoclock.space/database/observations/TOI-2154b_2281_2023-11-20_Altair1999_1589_Lum</t>
         </is>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TOI-2154b</t>
+          <t>HAT-P-69b</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2044,19 +2044,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-2154b_2303_2024-02-12_Altair1999_1568_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-69b_1840_2024-02-12_Altair1999_1323_B</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HAT-P-69b</t>
+          <t>TOI-2154b</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-69b_1840_2024-02-12_Altair1999_1323_B</t>
+          <t>https://www.exoclock.space/database/observations/TOI-2154b_2303_2024-02-12_Altair1999_1568_R</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HAT-P-49b</t>
+          <t>HAT-P-1b</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3097,19 +3097,19 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-49b_3351_2024-09-12_Altair1999_1323_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-1b_2020_2024-09-12_Altair1999_2435_R</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HAT-P-1b</t>
+          <t>HAT-P-49b</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3124,12 +3124,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-1b_2020_2024-09-12_Altair1999_2435_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-49b_3351_2024-09-12_Altair1999_1323_R</t>
         </is>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>WASP-52b</t>
+          <t>HAT-P-32b</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3254,24 +3254,24 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-52b_5172_2024-10-11_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-32b_4209_2024-10-11_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>HAT-P-32b</t>
+          <t>WASP-52b</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3281,17 +3281,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-32b_4209_2024-10-11_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-52b_5172_2024-10-11_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HAT-P-16b</t>
+          <t>WASP-33b</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3605,44 +3605,98 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Shun-Chia Yang</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-16b_3269_2024-11-06_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-33b_7440_2024-11-06_scyang_2506_R</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
+          <t>HAT-P-16b</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-16b_3269_2024-11-06_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
           <t>TOI-3714b</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>2024-11-16</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Lee YuHsien</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>KMSH Observatory</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>https://www.exoclock.space/database/observations/TOI-3714b_4216_2024-11-16_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>K2-34b</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3036_2024-11-25_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>

--- a/observations/TOP_ObservationLog.xlsx
+++ b/observations/TOP_ObservationLog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,7 +1111,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WASP-90b</t>
+          <t>Qatar-1b</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1131,14 +1131,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-90b_2192_2023-07-06_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-1b_6047_2023-07-06_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Qatar-1b</t>
+          <t>WASP-90b</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-1b_6047_2023-07-06_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-90b_2192_2023-07-06_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HAT-P-62b</t>
+          <t>WASP-12b</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1450,19 +1450,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-62b_3296_2023-11-17_Altair1999_1568_Clear</t>
+          <t>https://www.exoclock.space/database/observations/WASP-12b_7990_2023-11-17_Altair1999_1589_Lum</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>WASP-12b</t>
+          <t>HAT-P-62b</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1477,12 +1477,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-12b_7990_2023-11-17_Altair1999_1589_Lum</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-62b_3296_2023-11-17_Altair1999_1568_Clear</t>
         </is>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HAT-P-69b</t>
+          <t>TOI-2154b</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2044,19 +2044,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-69b_1840_2024-02-12_Altair1999_1323_B</t>
+          <t>https://www.exoclock.space/database/observations/TOI-2154b_2303_2024-02-12_Altair1999_1568_R</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TOI-2154b</t>
+          <t>HAT-P-69b</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-2154b_2303_2024-02-12_Altair1999_1568_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-69b_1840_2024-02-12_Altair1999_1323_B</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TOI-1728b</t>
+          <t>XO-2Nb</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2120,24 +2120,24 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-1728b_2523_2024-02-14_KMSHO_1635_V</t>
+          <t>https://www.exoclock.space/database/observations/XO-2Nb_3367_2024-02-14_Altair1999_1568_B</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>XO-2Nb</t>
+          <t>TOI-1728b</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2147,17 +2147,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/XO-2Nb_3367_2024-02-14_Altair1999_1568_B</t>
+          <t>https://www.exoclock.space/database/observations/TOI-1728b_2523_2024-02-14_KMSHO_1635_V</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HAT-P-36b</t>
+          <t>WASP-104b</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2282,24 +2282,24 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Hao-Yuan Duan</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>Lulin Observatory, Taiwan</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-36b_6657_2024-03-12_Altair1999_1568_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_hyduan_2152_I</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>WASP-104b</t>
+          <t>HAT-P-36b</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2309,24 +2309,24 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Hao-Yuan Duan</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Lulin Observatory, Taiwan</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_hyduan_2152_I</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-36b_6657_2024-03-12_Altair1999_1568_R</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HAT-P-30b</t>
+          <t>WASP-104b</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2336,24 +2336,24 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ting-Shuo Yeh</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>TCFSH Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-30b_3146_2024-03-19_TCFSH_Obs_1371_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5038_2024-03-19_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WASP-104b</t>
+          <t>HAT-P-30b</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2363,24 +2363,24 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Ting-Shuo Yeh</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>TCFSH Observatory</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5038_2024-03-19_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-30b_3146_2024-03-19_TCFSH_Obs_1371_R</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>WASP-43b</t>
+          <t>WASP-85Ab</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2395,19 +2395,19 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Lulin Observatory, Taiwan</t>
+          <t>Taipei Astronomical Museum, Taiwan</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-43b_10873_2024-03-20_hyduan_2152_I</t>
+          <t>https://www.exoclock.space/database/observations/WASP-85Ab_3330_2024-03-20_hyduan_2184_R</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>WASP-85Ab</t>
+          <t>WASP-43b</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Taipei Astronomical Museum, Taiwan</t>
+          <t>Lulin Observatory, Taiwan</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-85Ab_3330_2024-03-20_hyduan_2184_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-43b_10873_2024-03-20_hyduan_2152_I</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Qatar-6b</t>
+          <t>Qatar-1b</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-6b_2526_2024-04-02_Altair1999_1568_R</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-1b_6238_2024-04-02_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Qatar-1b</t>
+          <t>Qatar-6b</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2530,12 +2530,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-1b_6238_2024-04-02_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-6b_2526_2024-04-02_Altair1999_1568_R</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LHS1140c</t>
+          <t>WASP-28b</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2935,19 +2935,19 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Lulin Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/LHS1140c_2383_2024-08-27_Altair1999_2155_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-28b_2641_2024-08-27_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>WASP-28b</t>
+          <t>LHS1140c</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2962,12 +2962,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>Lulin Observatory</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-28b_2641_2024-08-27_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/LHS1140c_2383_2024-08-27_Altair1999_2155_R</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>KELT-1b</t>
+          <t>TOI-3714b</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/KELT-1b_7441_2024-10-21_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/TOI-3714b_4204_2024-10-21_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
@@ -3502,19 +3502,19 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/KELT-1b_7441_2024-10-21_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/KELT-1b_7441_2024-10-21_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TOI-3714b</t>
+          <t>KELT-1b</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-3714b_4204_2024-10-21_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/KELT-1b_7441_2024-10-21_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>WASP-33b</t>
+          <t>HAT-P-16b</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3605,24 +3605,24 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Shun-Chia Yang</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-33b_7440_2024-11-06_scyang_2506_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-16b_3269_2024-11-06_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HAT-P-16b</t>
+          <t>WASP-33b</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3632,17 +3632,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Shun-Chia Yang</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-16b_3269_2024-11-06_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-33b_7440_2024-11-06_scyang_2506_R</t>
         </is>
       </c>
     </row>
@@ -3697,6 +3697,546 @@
       <c r="E121" t="inlineStr">
         <is>
           <t>https://www.exoclock.space/database/observations/K2-34b_3036_2024-11-25_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>HAT-P-33b</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-33b_2618_2024-11-27_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>GPX-1b</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/GPX-1b_5214_2024-11-27_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>HATS-42b</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Hao-Yuan Duan</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Lulin, Taiwan</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HATS-42b_3968_2024-11-27_hyduan_2566_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>K2-34b</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3037_2024-11-28_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>TOI-3714b</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/TOI-3714b_4222_2024-11-29_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>TOI-3714b</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/TOI-3714b_4222_2024-11-29_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>HAT-P-25b</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-25b_2491_2024-11-30_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>HAT-P-52b</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-52b_3305_2024-12-01_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>TOI-3714b</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/TOI-3714b_4223_2024-12-01_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>K2-29b</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/K2-29b_2793_2024-12-04_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Gaia-1b</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/Gaia-1b_2983_2024-12-06_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>K2-121b</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/K2-121b_1756_2024-12-09_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>XO-2Nb</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/XO-2Nb_3484_2024-12-16_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>HAT-P-32b</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-32b_4241_2024-12-19_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>WASP-43b</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/WASP-43b_11210_2024-12-19_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>KELT-19Ab</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2024-12-21</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/KELT-19Ab_1977_2024-12-21_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>HAT-P-42b</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-42b_1966_2024-12-28_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>K2-34b</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3047_2024-12-28_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>TOI-2364b</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/TOI-2364b_2271_2024-12-29_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>WASP-85Ab</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/WASP-85Ab_3437_2024-12-29_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>

--- a/observations/TOP_ObservationLog.xlsx
+++ b/observations/TOP_ObservationLog.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,7 +1111,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Qatar-1b</t>
+          <t>WASP-90b</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1131,14 +1131,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-1b_6047_2023-07-06_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-90b_2192_2023-07-06_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>WASP-90b</t>
+          <t>Qatar-1b</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-90b_2192_2023-07-06_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-1b_6047_2023-07-06_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EPIC246851721b</t>
+          <t>TOI-2154b</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1531,19 +1531,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/EPIC246851721b_1411_2023-11-20_Altair1999_1568_Clear</t>
+          <t>https://www.exoclock.space/database/observations/TOI-2154b_2281_2023-11-20_Altair1999_1589_Lum</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TOI-2154b</t>
+          <t>EPIC246851721b</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1558,12 +1558,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-2154b_2281_2023-11-20_Altair1999_1589_Lum</t>
+          <t>https://www.exoclock.space/database/observations/EPIC246851721b_1411_2023-11-20_Altair1999_1568_Clear</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>XO-2Nb</t>
+          <t>TOI-1728b</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2120,24 +2120,24 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/XO-2Nb_3367_2024-02-14_Altair1999_1568_B</t>
+          <t>https://www.exoclock.space/database/observations/TOI-1728b_2523_2024-02-14_KMSHO_1635_V</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TOI-1728b</t>
+          <t>XO-2Nb</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2147,24 +2147,24 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-1728b_2523_2024-02-14_KMSHO_1635_V</t>
+          <t>https://www.exoclock.space/database/observations/XO-2Nb_3367_2024-02-14_Altair1999_1568_B</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GJ3470b</t>
+          <t>HAT-P-22b</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2174,24 +2174,24 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Kuo-Pin Huang</t>
+          <t>Hao-Yuan Duan</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Remote KMSH observatory</t>
+          <t>Lulin Observatory, Taiwan</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/GJ3470b_2647_2024-03-08_kphuang_2112_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-22b_2749_2024-03-08_hyduan_2152_I</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HAT-P-22b</t>
+          <t>GJ3470b</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2201,17 +2201,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Hao-Yuan Duan</t>
+          <t>Kuo-Pin Huang</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Lulin Observatory, Taiwan</t>
+          <t>Remote KMSH observatory</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-22b_2749_2024-03-08_hyduan_2152_I</t>
+          <t>https://www.exoclock.space/database/observations/GJ3470b_2647_2024-03-08_kphuang_2112_R</t>
         </is>
       </c>
     </row>
@@ -2228,17 +2228,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Hao-Yuan Duan</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Lulin Observatory, Taiwan</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_hyduan_2152_I</t>
         </is>
       </c>
     </row>
@@ -2282,17 +2282,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Hao-Yuan Duan</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Lulin Observatory, Taiwan</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_hyduan_2152_I</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Qatar-1b</t>
+          <t>Qatar-6b</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-1b_6238_2024-04-02_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-6b_2526_2024-04-02_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -2503,19 +2503,19 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-6b_2526_2024-04-02_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-6b_2526_2024-04-02_Altair1999_1568_R</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Qatar-6b</t>
+          <t>Qatar-1b</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2530,12 +2530,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-6b_2526_2024-04-02_Altair1999_1568_R</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-1b_6238_2024-04-02_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>WASP-24b</t>
+          <t>TrES-3b</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2611,19 +2611,19 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-24b_3801_2024-05-14_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/TrES-3b_6813_2024-05-14_Altair1999_1568_R</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TrES-3b</t>
+          <t>WASP-24b</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2638,12 +2638,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TrES-3b_6813_2024-05-14_Altair1999_1568_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-24b_3801_2024-05-14_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HAT-P-1b</t>
+          <t>HAT-P-49b</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3097,19 +3097,19 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-1b_2020_2024-09-12_Altair1999_2435_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-49b_3351_2024-09-12_Altair1999_1323_R</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HAT-P-49b</t>
+          <t>HAT-P-1b</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3124,12 +3124,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-49b_3351_2024-09-12_Altair1999_1323_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-1b_2020_2024-09-12_Altair1999_2435_R</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TOI-3714b</t>
+          <t>KELT-1b</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-3714b_4204_2024-10-21_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/KELT-1b_7441_2024-10-21_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -3502,19 +3502,19 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/KELT-1b_7441_2024-10-21_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/KELT-1b_7441_2024-10-21_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>KELT-1b</t>
+          <t>TOI-3714b</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/KELT-1b_7441_2024-10-21_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/TOI-3714b_4204_2024-10-21_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>GPX-1b</t>
+          <t>HATS-42b</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3740,24 +3740,24 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Hao-Yuan Duan</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Lulin, Taiwan</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/GPX-1b_5214_2024-11-27_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/HATS-42b_3968_2024-11-27_hyduan_2566_I</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HATS-42b</t>
+          <t>GPX-1b</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3767,17 +3767,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Hao-Yuan Duan</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Lulin, Taiwan</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HATS-42b_3968_2024-11-27_hyduan_2566_I</t>
+          <t>https://www.exoclock.space/database/observations/GPX-1b_5214_2024-11-27_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>HAT-P-32b</t>
+          <t>WASP-43b</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4074,14 +4074,14 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-32b_4241_2024-12-19_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-43b_11210_2024-12-19_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>WASP-43b</t>
+          <t>HAT-P-32b</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-43b_11210_2024-12-19_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-32b_4241_2024-12-19_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HAT-P-42b</t>
+          <t>K2-34b</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4145,24 +4145,24 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-42b_1966_2024-12-28_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3047_2024-12-28_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>K2-34b</t>
+          <t>HAT-P-42b</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4172,24 +4172,24 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-34b_3047_2024-12-28_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-42b_1966_2024-12-28_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TOI-2364b</t>
+          <t>WASP-85Ab</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4209,14 +4209,14 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-2364b_2271_2024-12-29_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-85Ab_3437_2024-12-29_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>WASP-85Ab</t>
+          <t>TOI-2364b</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4236,7 +4236,547 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-85Ab_3437_2024-12-29_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/TOI-2364b_2271_2024-12-29_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>TOI-628b</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/TOI-628b_2677_2024-12-30_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>CoRoT-5b</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/CoRoT-5b_2261_2024-12-30_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>CoRoT-1b</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/CoRoT-1b_6052_2025-01-02_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>K2-34b</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3049_2025-01-03_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>XO-2Nb</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/XO-2Nb_3492_2025-01-06_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>WASP-104b</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5205_2025-01-06_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>K2-34b</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3050_2025-01-06_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>GPX-1b</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/GPX-1b_5238_2025-01-08_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>WASP-84b</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/WASP-84b_1072_2025-01-08_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>WASP-36b</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/WASP-36b_5946_2025-01-10_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>WASP-43b</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/WASP-43b_11237_2025-01-10_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>K2-34b</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3052_2025-01-12_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>HAT-P-13b</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-13b_3135_2025-01-12_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>K2-405b</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Lulin Observatory</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/K2-405b_2661_2025-01-12_Altair1999_2155_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>WASP-104b</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5209_2025-01-13_Altair1999_2606_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>WASP-36b</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/WASP-36b_5948_2025-01-13_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>NGTS-9b</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Lulin Observatory</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/NGTS-9b_2062_2025-01-16_Altair1999_2155_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>WASP-34b</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/WASP-34b_2118_2025-01-16_Altair1999_2606_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>HAT-P-21b</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-21b_2217_2025-01-16_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>TOI-1811b</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/TOI-1811b_2463_2025-01-17_KMSHO_1635_R</t>
         </is>
       </c>
     </row>

--- a/observations/TOP_ObservationLog.xlsx
+++ b/observations/TOP_ObservationLog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,7 +1111,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WASP-90b</t>
+          <t>Qatar-1b</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1131,14 +1131,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-90b_2192_2023-07-06_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-1b_6047_2023-07-06_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Qatar-1b</t>
+          <t>WASP-90b</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-1b_6047_2023-07-06_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-90b_2192_2023-07-06_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TOI-2154b</t>
+          <t>EPIC246851721b</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1531,19 +1531,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-2154b_2281_2023-11-20_Altair1999_1589_Lum</t>
+          <t>https://www.exoclock.space/database/observations/EPIC246851721b_1411_2023-11-20_Altair1999_1568_Clear</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EPIC246851721b</t>
+          <t>TOI-2154b</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1558,12 +1558,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/EPIC246851721b_1411_2023-11-20_Altair1999_1568_Clear</t>
+          <t>https://www.exoclock.space/database/observations/TOI-2154b_2281_2023-11-20_Altair1999_1589_Lum</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HAT-P-22b</t>
+          <t>GJ3470b</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2174,24 +2174,24 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Hao-Yuan Duan</t>
+          <t>Kuo-Pin Huang</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Lulin Observatory, Taiwan</t>
+          <t>Remote KMSH observatory</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-22b_2749_2024-03-08_hyduan_2152_I</t>
+          <t>https://www.exoclock.space/database/observations/GJ3470b_2647_2024-03-08_kphuang_2112_R</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GJ3470b</t>
+          <t>HAT-P-22b</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2201,24 +2201,24 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Kuo-Pin Huang</t>
+          <t>Hao-Yuan Duan</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Remote KMSH observatory</t>
+          <t>Lulin Observatory, Taiwan</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/GJ3470b_2647_2024-03-08_kphuang_2112_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-22b_2749_2024-03-08_hyduan_2152_I</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>WASP-104b</t>
+          <t>HAT-P-36b</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2228,17 +2228,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Hao-Yuan Duan</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Lulin Observatory, Taiwan</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_hyduan_2152_I</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-36b_6657_2024-03-12_Altair1999_1568_R</t>
         </is>
       </c>
     </row>
@@ -2255,17 +2255,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>YingLin Chen</t>
+          <t>Hao-Yuan Duan</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>CYGSH_Obseratory</t>
+          <t>Lulin Observatory, Taiwan</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_fredchen0930_1670_Clear</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_hyduan_2152_I</t>
         </is>
       </c>
     </row>
@@ -2282,24 +2282,24 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>YingLin Chen</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>CYGSH_Obseratory</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_fredchen0930_1670_Clear</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HAT-P-36b</t>
+          <t>WASP-104b</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2309,24 +2309,24 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-36b_6657_2024-03-12_Altair1999_1568_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>WASP-104b</t>
+          <t>HAT-P-30b</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2336,24 +2336,24 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Ting-Shuo Yeh</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>TCFSH Observatory</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5038_2024-03-19_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-30b_3146_2024-03-19_TCFSH_Obs_1371_R</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HAT-P-30b</t>
+          <t>WASP-104b</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2363,17 +2363,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ting-Shuo Yeh</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>TCFSH Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-30b_3146_2024-03-19_TCFSH_Obs_1371_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5038_2024-03-19_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
@@ -2476,12 +2476,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-6b_2526_2024-04-02_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-6b_2526_2024-04-02_Altair1999_1568_R</t>
         </is>
       </c>
     </row>
@@ -2503,12 +2503,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-6b_2526_2024-04-02_Altair1999_1568_R</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-6b_2526_2024-04-02_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HAT-P-16b</t>
+          <t>WASP-33b</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3605,24 +3605,24 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Shun-Chia Yang</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-16b_3269_2024-11-06_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-33b_7440_2024-11-06_scyang_2506_R</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>WASP-33b</t>
+          <t>HAT-P-16b</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3632,17 +3632,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Shun-Chia Yang</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-33b_7440_2024-11-06_scyang_2506_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-16b_3269_2024-11-06_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HAT-P-33b</t>
+          <t>GPX-1b</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3713,17 +3713,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-33b_2618_2024-11-27_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/GPX-1b_5214_2024-11-27_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>GPX-1b</t>
+          <t>HAT-P-33b</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3767,24 +3767,24 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/GPX-1b_5214_2024-11-27_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-33b_2618_2024-11-27_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>K2-34b</t>
+          <t>WASP-33b</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3794,29 +3794,29 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Ting-Shuo Yeh</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>TCFSH Observatory</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-34b_3037_2024-11-28_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-33b_7458_2024-11-28_TCFSH_Obs_1371_R</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>TOI-3714b</t>
+          <t>K2-34b</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-3714b_4222_2024-11-29_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3037_2024-11-28_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HAT-P-25b</t>
+          <t>TOI-3714b</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3885,41 +3885,41 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-25b_2491_2024-11-30_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/TOI-3714b_4222_2024-11-29_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HAT-P-52b</t>
+          <t>HAT-P-25b</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-52b_3305_2024-12-01_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-25b_2491_2024-11-30_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>TOI-3714b</t>
+          <t>HAT-P-52b</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3939,19 +3939,19 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-3714b_4223_2024-12-01_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-52b_3305_2024-12-01_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>K2-29b</t>
+          <t>TOI-3714b</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3966,46 +3966,46 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-29b_2793_2024-12-04_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/TOI-3714b_4223_2024-12-01_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Gaia-1b</t>
+          <t>K2-29b</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Gaia-1b_2983_2024-12-06_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/K2-29b_2793_2024-12-04_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>K2-121b</t>
+          <t>Gaia-1b</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4020,46 +4020,46 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-121b_1756_2024-12-09_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/Gaia-1b_2983_2024-12-06_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>XO-2Nb</t>
+          <t>K2-121b</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/XO-2Nb_3484_2024-12-16_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/K2-121b_1756_2024-12-09_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>WASP-43b</t>
+          <t>XO-2Nb</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-43b_11210_2024-12-19_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/XO-2Nb_3484_2024-12-16_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
@@ -4108,12 +4108,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>KELT-19Ab</t>
+          <t>WASP-43b</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4128,19 +4128,19 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/KELT-19Ab_1977_2024-12-21_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-43b_11210_2024-12-19_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>K2-34b</t>
+          <t>KELT-7b</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-20</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4155,73 +4155,73 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-34b_3047_2024-12-28_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/KELT-7b_3334_2024-12-20_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>HAT-P-42b</t>
+          <t>KELT-19Ab</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-21</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-42b_1966_2024-12-28_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/KELT-19Ab_1977_2024-12-21_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>WASP-85Ab</t>
+          <t>K2-34b</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-85Ab_3437_2024-12-29_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3047_2024-12-28_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>TOI-2364b</t>
+          <t>HAT-P-42b</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4236,46 +4236,46 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-2364b_2271_2024-12-29_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-42b_1966_2024-12-28_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>TOI-628b</t>
+          <t>TOI-2364b</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-628b_2677_2024-12-30_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/TOI-2364b_2271_2024-12-29_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CoRoT-5b</t>
+          <t>WASP-85Ab</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4290,46 +4290,46 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/CoRoT-5b_2261_2024-12-30_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-85Ab_3437_2024-12-29_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CoRoT-1b</t>
+          <t>CoRoT-5b</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/CoRoT-1b_6052_2025-01-02_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/CoRoT-5b_2261_2024-12-30_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>K2-34b</t>
+          <t>TOI-628b</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4344,19 +4344,19 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-34b_3049_2025-01-03_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/TOI-628b_2677_2024-12-30_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>XO-2Nb</t>
+          <t>CoRoT-1b</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4371,19 +4371,19 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/XO-2Nb_3492_2025-01-06_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/CoRoT-1b_6052_2025-01-02_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>WASP-104b</t>
+          <t>K2-34b</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4398,14 +4398,14 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5205_2025-01-06_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3049_2025-01-03_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>K2-34b</t>
+          <t>WASP-104b</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4415,29 +4415,29 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-34b_3050_2025-01-06_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5205_2025-01-06_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>GPX-1b</t>
+          <t>XO-2Nb</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4452,46 +4452,46 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/GPX-1b_5238_2025-01-08_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/XO-2Nb_3492_2025-01-06_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>WASP-84b</t>
+          <t>K2-34b</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-84b_1072_2025-01-08_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3050_2025-01-06_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>WASP-36b</t>
+          <t>GPX-1b</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4506,19 +4506,19 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-36b_5946_2025-01-10_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/GPX-1b_5238_2025-01-08_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>WASP-43b</t>
+          <t>WASP-84b</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4533,19 +4533,19 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-43b_11237_2025-01-10_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-84b_1072_2025-01-08_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>K2-34b</t>
+          <t>WASP-43b</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4560,41 +4560,41 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-34b_3052_2025-01-12_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-43b_11237_2025-01-10_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HAT-P-13b</t>
+          <t>WASP-36b</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-13b_3135_2025-01-12_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-36b_5946_2025-01-10_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>K2-405b</t>
+          <t>HAT-P-13b</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4609,105 +4609,105 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Lulin Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-405b_2661_2025-01-12_Altair1999_2155_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-13b_3135_2025-01-12_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>WASP-104b</t>
+          <t>K2-34b</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5209_2025-01-13_Altair1999_2606_R</t>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3052_2025-01-12_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>WASP-36b</t>
+          <t>K2-405b</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Lulin Observatory</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-36b_5948_2025-01-13_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/K2-405b_2661_2025-01-12_Altair1999_2155_R</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>NGTS-9b</t>
+          <t>WASP-36b</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Lulin Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/NGTS-9b_2062_2025-01-16_Altair1999_2155_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-36b_5948_2025-01-13_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>WASP-34b</t>
+          <t>WASP-104b</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4722,14 +4722,14 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-34b_2118_2025-01-16_Altair1999_2606_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5209_2025-01-13_Altair1999_2606_R</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>HAT-P-21b</t>
+          <t>WASP-34b</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4739,44 +4739,260 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-21b_2217_2025-01-16_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-34b_2118_2025-01-16_Altair1999_2606_R</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
+          <t>NGTS-9b</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Lulin Observatory</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/NGTS-9b_2062_2025-01-16_Altair1999_2155_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>HAT-P-21b</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>KMSH Observatory</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-21b_2217_2025-01-16_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
           <t>TOI-1811b</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>Lee YuHsien</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>KMSH Observatory</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>https://www.exoclock.space/database/observations/TOI-1811b_2463_2025-01-17_KMSHO_1635_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>KPS-1b</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/KPS-1b_5374_2025-02-09_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>K2-34b</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3063_2025-02-14_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>TOI-532b</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Lulin Observatory</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/TOI-532b_3945_2025-02-18_Altair1999_2155_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>K2-19b</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Lulin Observatory</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/K2-19b_1159_2025-02-19_Altair1999_2155_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>WASP-36b</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/WASP-36b_5983_2025-03-08_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Qatar-6b</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/Qatar-6b_2623_2025-03-08_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>

--- a/observations/TOP_ObservationLog.xlsx
+++ b/observations/TOP_ObservationLog.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,7 +1111,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Qatar-1b</t>
+          <t>WASP-90b</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1131,14 +1131,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-1b_6047_2023-07-06_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-90b_2192_2023-07-06_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>WASP-90b</t>
+          <t>Qatar-1b</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-90b_2192_2023-07-06_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-1b_6047_2023-07-06_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EPIC246851721b</t>
+          <t>TOI-2154b</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1531,19 +1531,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/EPIC246851721b_1411_2023-11-20_Altair1999_1568_Clear</t>
+          <t>https://www.exoclock.space/database/observations/TOI-2154b_2281_2023-11-20_Altair1999_1589_Lum</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TOI-2154b</t>
+          <t>EPIC246851721b</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1558,12 +1558,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-2154b_2281_2023-11-20_Altair1999_1589_Lum</t>
+          <t>https://www.exoclock.space/database/observations/EPIC246851721b_1411_2023-11-20_Altair1999_1568_Clear</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TOI-1728b</t>
+          <t>XO-2Nb</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2120,24 +2120,24 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-1728b_2523_2024-02-14_KMSHO_1635_V</t>
+          <t>https://www.exoclock.space/database/observations/XO-2Nb_3367_2024-02-14_Altair1999_1568_B</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>XO-2Nb</t>
+          <t>TOI-1728b</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2147,17 +2147,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/XO-2Nb_3367_2024-02-14_Altair1999_1568_B</t>
+          <t>https://www.exoclock.space/database/observations/TOI-1728b_2523_2024-02-14_KMSHO_1635_V</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HAT-P-36b</t>
+          <t>WASP-104b</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2228,24 +2228,24 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>YingLin Chen</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>CYGSH_Obseratory</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-36b_6657_2024-03-12_Altair1999_1568_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_fredchen0930_1670_Clear</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>WASP-104b</t>
+          <t>HAT-P-36b</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2255,17 +2255,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Hao-Yuan Duan</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Lulin Observatory, Taiwan</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_hyduan_2152_I</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-36b_6657_2024-03-12_Altair1999_1568_R</t>
         </is>
       </c>
     </row>
@@ -2282,17 +2282,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>YingLin Chen</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>CYGSH_Obseratory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_fredchen0930_1670_Clear</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
@@ -2309,24 +2309,24 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Hao-Yuan Duan</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Lulin Observatory, Taiwan</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5034_2024-03-12_hyduan_2152_I</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HAT-P-30b</t>
+          <t>WASP-104b</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2336,44 +2336,44 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ting-Shuo Yeh</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>TCFSH Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-30b_3146_2024-03-19_TCFSH_Obs_1371_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5038_2024-03-19_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WASP-104b</t>
+          <t>WASP-43b</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Hao-Yuan Duan</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Lulin Observatory, Taiwan</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5038_2024-03-19_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-43b_10873_2024-03-20_hyduan_2152_I</t>
         </is>
       </c>
     </row>
@@ -2412,34 +2412,34 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Hao-Yuan Duan</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Lulin Observatory, Taiwan</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-43b_10873_2024-03-20_hyduan_2152_I</t>
+          <t>https://www.exoclock.space/database/observations/WASP-43b_10879_2024-03-25_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>WASP-43b</t>
+          <t>Qatar-6b</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2449,19 +2449,19 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-43b_10879_2024-03-25_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-6b_2526_2024-04-02_Altair1999_1568_R</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Qatar-6b</t>
+          <t>Qatar-1b</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-6b_2526_2024-04-02_Altair1999_1568_R</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-1b_6238_2024-04-02_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Qatar-1b</t>
+          <t>WASP-103b</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2530,24 +2530,24 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>NTHU TAT</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-1b_6238_2024-04-02_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-103b_9571_2024-04-03_Altair1999_1568_Clear</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WASP-103b</t>
+          <t>WASP-92b</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2557,24 +2557,24 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NTHU TAT</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-103b_9571_2024-04-03_Altair1999_1568_Clear</t>
+          <t>https://www.exoclock.space/database/observations/WASP-92b_4089_2024-05-08_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WASP-92b</t>
+          <t>WASP-24b</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-92b_4089_2024-05-08_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-24b_3801_2024-05-14_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -2623,12 +2623,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>WASP-24b</t>
+          <t>WASP-74b</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2643,19 +2643,19 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-24b_3801_2024-05-14_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-74b_4182_2024-06-23_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>WASP-74b</t>
+          <t>HAT-P-55b</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2670,73 +2670,73 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-74b_4182_2024-06-23_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-55b_2494_2024-06-26_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HAT-P-55b</t>
+          <t>TrES-3b</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Hao-Yuan Duan</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>Lulin Observatory, Taiwan</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-55b_2494_2024-06-26_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/TrES-3b_6852_2024-07-04_hyduan_2152_B</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TrES-3b</t>
+          <t>WASP-75b</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Hao-Yuan Duan</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Lulin Observatory, Taiwan</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TrES-3b_6852_2024-07-04_hyduan_2152_B</t>
+          <t>https://www.exoclock.space/database/observations/WASP-75b_3604_2024-07-08_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>WASP-75b</t>
+          <t>K2-31b</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-09</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2751,19 +2751,19 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-75b_3604_2024-07-08_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/K2-31b_7120_2024-07-09_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>K2-31b</t>
+          <t>HAT-P-1b</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2778,19 +2778,19 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-31b_7120_2024-07-09_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-1b_2007_2024-07-16_Altair1999_1323_R</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HAT-P-1b</t>
+          <t>TOI-4463Ab</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2805,19 +2805,19 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-1b_2007_2024-07-16_Altair1999_1323_R</t>
+          <t>https://www.exoclock.space/database/observations/TOI-4463Ab_3112_2024-07-18_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TOI-4463Ab</t>
+          <t>WASP-6b</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2832,19 +2832,19 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-4463Ab_3112_2024-07-18_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-6b_2671_2024-08-02_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>WASP-6b</t>
+          <t>WASP-2b</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2859,19 +2859,19 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-6b_2671_2024-08-02_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-2b_4175_2024-08-09_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>WASP-2b</t>
+          <t>WASP-60b</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-2b_4175_2024-08-09_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-60b_2088_2024-08-11_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>WASP-60b</t>
+          <t>WASP-28b</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2908,19 +2908,19 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-60b_2088_2024-08-11_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-28b_2641_2024-08-27_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>WASP-28b</t>
+          <t>LHS1140c</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2935,24 +2935,24 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>Lulin Observatory</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-28b_2641_2024-08-27_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/LHS1140c_2383_2024-08-27_Altair1999_2155_R</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>LHS1140c</t>
+          <t>HAT-P-28b</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2962,24 +2962,24 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Lulin Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/LHS1140c_2383_2024-08-27_Altair1999_2155_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-28b_2765_2024-08-31_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HAT-P-28b</t>
+          <t>WASP-114b</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-01</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2994,19 +2994,19 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-28b_2765_2024-08-31_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-114b_5817_2024-09-01_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>WASP-114b</t>
+          <t>HATS-72b</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3021,19 +3021,19 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-114b_5817_2024-09-01_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/HATS-72b_1229_2024-09-03_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HATS-72b</t>
+          <t>WASP-33b</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3048,19 +3048,19 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HATS-72b_1229_2024-09-03_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-33b_7390_2024-09-06_Altair1999_2435_R</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>WASP-33b</t>
+          <t>HAT-P-49b</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3070,19 +3070,19 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-33b_7390_2024-09-06_Altair1999_2435_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-49b_3351_2024-09-12_Altair1999_1323_R</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HAT-P-49b</t>
+          <t>HAT-P-1b</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3097,24 +3097,24 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-49b_3351_2024-09-12_Altair1999_1323_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-1b_2020_2024-09-12_Altair1999_2435_R</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HAT-P-1b</t>
+          <t>WASP-76b</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3129,19 +3129,19 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-1b_2020_2024-09-12_Altair1999_2435_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-76b_4986_2024-09-15_Altair1999_2435_R</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>WASP-76b</t>
+          <t>WASP-156b</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3156,19 +3156,19 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-76b_4986_2024-09-15_Altair1999_2435_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-156b_2357_2024-10-05_Altair1999_2435_R</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>WASP-156b</t>
+          <t>GPX-1b</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3183,19 +3183,19 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-156b_2357_2024-10-05_Altair1999_2435_R</t>
+          <t>https://www.exoclock.space/database/observations/GPX-1b_5186_2024-10-09_Altair1999_2435_Clear</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>GPX-1b</t>
+          <t>KELT-1b</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3205,39 +3205,39 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/GPX-1b_5186_2024-10-09_Altair1999_2435_Clear</t>
+          <t>https://www.exoclock.space/database/observations/KELT-1b_7432_2024-10-10_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>KELT-1b</t>
+          <t>WASP-52b</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/KELT-1b_7432_2024-10-10_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-52b_5172_2024-10-11_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
@@ -3271,39 +3271,39 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>WASP-52b</t>
+          <t>Gaia-1b</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-10-12</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-52b_5172_2024-10-11_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/Gaia-1b_2965_2024-10-12_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Gaia-1b</t>
+          <t>HAT-P-53b</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024-10-12</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3313,12 +3313,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Gaia-1b_2965_2024-10-12_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-53b_4615_2024-10-14_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -3352,12 +3352,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HAT-P-53b</t>
+          <t>WASP-12b</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3367,24 +3367,24 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-53b_4615_2024-10-14_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-12b_8297_2024-10-17_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>WASP-12b</t>
+          <t>HAT-P-62b</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3399,19 +3399,19 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-12b_8297_2024-10-17_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-62b_3423_2024-10-18_Altair1999_2435_Clear</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HAT-P-62b</t>
+          <t>CoRoT-1b</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3426,19 +3426,19 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-62b_3423_2024-10-18_Altair1999_2435_Clear</t>
+          <t>https://www.exoclock.space/database/observations/CoRoT-1b_6003_2024-10-20_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CoRoT-1b</t>
+          <t>KELT-1b</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3448,12 +3448,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>NTHU Observatory</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/CoRoT-1b_6003_2024-10-20_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/KELT-1b_7441_2024-10-21_Altair1999_1323_Lum</t>
         </is>
       </c>
     </row>
@@ -3475,19 +3475,19 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NTHU Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/KELT-1b_7441_2024-10-21_Altair1999_1323_Lum</t>
+          <t>https://www.exoclock.space/database/observations/KELT-1b_7441_2024-10-21_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>KELT-1b</t>
+          <t>TOI-3714b</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3507,19 +3507,19 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/KELT-1b_7441_2024-10-21_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/TOI-3714b_4204_2024-10-21_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TOI-3714b</t>
+          <t>HAT-P-25b</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3534,24 +3534,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-3714b_4204_2024-10-21_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-25b_2482_2024-10-28_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HAT-P-25b</t>
+          <t>HAT-P-58b</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Shun-Chia Yang</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3561,19 +3561,19 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-25b_2482_2024-10-28_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-58b_2260_2024-11-05_scyang_2506_Lum</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HAT-P-58b</t>
+          <t>WASP-33b</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3588,14 +3588,14 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-58b_2260_2024-11-05_scyang_2506_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-33b_7440_2024-11-06_scyang_2506_R</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>WASP-33b</t>
+          <t>HAT-P-16b</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3605,29 +3605,29 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Shun-Chia Yang</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-33b_7440_2024-11-06_scyang_2506_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-16b_3269_2024-11-06_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HAT-P-16b</t>
+          <t>TOI-3714b</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-16</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3642,68 +3642,68 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-16b_3269_2024-11-06_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/TOI-3714b_4216_2024-11-16_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TOI-3714b</t>
+          <t>K2-34b</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-3714b_4216_2024-11-16_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3036_2024-11-25_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>K2-34b</t>
+          <t>GPX-1b</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-34b_3036_2024-11-25_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/GPX-1b_5214_2024-11-27_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>GPX-1b</t>
+          <t>HATS-42b</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3713,24 +3713,24 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Hao-Yuan Duan</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Lulin, Taiwan</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/GPX-1b_5214_2024-11-27_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/HATS-42b_3968_2024-11-27_hyduan_2566_I</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HATS-42b</t>
+          <t>HAT-P-33b</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3740,29 +3740,29 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Hao-Yuan Duan</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Lulin, Taiwan</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HATS-42b_3968_2024-11-27_hyduan_2566_I</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-33b_2618_2024-11-27_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HAT-P-33b</t>
+          <t>K2-34b</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3777,88 +3777,88 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-33b_2618_2024-11-27_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3037_2024-11-28_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>WASP-33b</t>
+          <t>TOI-3714b</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Ting-Shuo Yeh</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>TCFSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-33b_7458_2024-11-28_TCFSH_Obs_1371_R</t>
+          <t>https://www.exoclock.space/database/observations/TOI-3714b_4222_2024-11-29_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>K2-34b</t>
+          <t>TOI-3714b</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-34b_3037_2024-11-28_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/TOI-3714b_4222_2024-11-29_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>TOI-3714b</t>
+          <t>HAT-P-25b</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-3714b_4222_2024-11-29_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-25b_2491_2024-11-30_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
@@ -3870,61 +3870,61 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-3714b_4222_2024-11-29_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/TOI-3714b_4223_2024-12-01_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HAT-P-25b</t>
+          <t>HAT-P-52b</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-25b_2491_2024-11-30_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-52b_3305_2024-12-01_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>HAT-P-52b</t>
+          <t>K2-29b</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3939,73 +3939,73 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-52b_3305_2024-12-01_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/K2-29b_2793_2024-12-04_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>TOI-3714b</t>
+          <t>Gaia-1b</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-3714b_4223_2024-12-01_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/Gaia-1b_2983_2024-12-06_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>K2-29b</t>
+          <t>NGTS-10b</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Chi-Yun Chen</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Lulin Observatory</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-29b_2793_2024-12-04_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/NGTS-10b_11876_2024-12-08_Denny3908_2902_R</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Gaia-1b</t>
+          <t>K2-121b</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4020,46 +4020,46 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/Gaia-1b_2983_2024-12-06_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/K2-121b_1756_2024-12-09_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>K2-121b</t>
+          <t>XO-2Nb</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-121b_1756_2024-12-09_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/XO-2Nb_3484_2024-12-16_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>XO-2Nb</t>
+          <t>WASP-43b</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/XO-2Nb_3484_2024-12-16_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-43b_11210_2024-12-19_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
@@ -4108,12 +4108,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>WASP-43b</t>
+          <t>KELT-7b</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-20</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4128,19 +4128,19 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-43b_11210_2024-12-19_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/KELT-7b_3334_2024-12-20_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>KELT-7b</t>
+          <t>KELT-19Ab</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2024-12-21</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4155,19 +4155,19 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/KELT-7b_3334_2024-12-20_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/KELT-19Ab_1977_2024-12-21_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>KELT-19Ab</t>
+          <t>K2-34b</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4182,14 +4182,14 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/KELT-19Ab_1977_2024-12-21_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3047_2024-12-28_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>K2-34b</t>
+          <t>HAT-P-42b</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4199,29 +4199,29 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-34b_3047_2024-12-28_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-42b_1966_2024-12-28_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HAT-P-42b</t>
+          <t>WASP-85Ab</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-42b_1966_2024-12-28_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/WASP-85Ab_3437_2024-12-29_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
@@ -4270,27 +4270,27 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>WASP-85Ab</t>
+          <t>TOI-628b</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-85Ab_3437_2024-12-29_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/TOI-628b_2677_2024-12-30_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
@@ -4324,12 +4324,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>TOI-628b</t>
+          <t>CoRoT-1b</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4344,19 +4344,19 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-628b_2677_2024-12-30_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/CoRoT-1b_6052_2025-01-02_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CoRoT-1b</t>
+          <t>K2-34b</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4371,19 +4371,19 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/CoRoT-1b_6052_2025-01-02_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3049_2025-01-03_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>K2-34b</t>
+          <t>WASP-104b</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4398,14 +4398,14 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-34b_3049_2025-01-03_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5205_2025-01-06_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>WASP-104b</t>
+          <t>XO-2Nb</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4425,14 +4425,14 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5205_2025-01-06_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/XO-2Nb_3492_2025-01-06_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>XO-2Nb</t>
+          <t>K2-34b</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4442,51 +4442,51 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/XO-2Nb_3492_2025-01-06_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3050_2025-01-06_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>K2-34b</t>
+          <t>GPX-1b</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-34b_3050_2025-01-06_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/GPX-1b_5238_2025-01-08_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>GPX-1b</t>
+          <t>WASP-84b</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4506,19 +4506,19 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/GPX-1b_5238_2025-01-08_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-84b_1072_2025-01-08_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>WASP-84b</t>
+          <t>WASP-36b</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-84b_1072_2025-01-08_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-36b_5946_2025-01-10_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
@@ -4567,12 +4567,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>WASP-36b</t>
+          <t>K2-34b</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-36b_5946_2025-01-10_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3052_2025-01-12_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>K2-34b</t>
+          <t>K2-405b</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4631,29 +4631,29 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Lulin Observatory</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-34b_3052_2025-01-12_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/K2-405b_2661_2025-01-12_Altair1999_2155_R</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>K2-405b</t>
+          <t>WASP-104b</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Lulin Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-405b_2661_2025-01-12_Altair1999_2155_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-104b_5209_2025-01-13_Altair1999_2606_R</t>
         </is>
       </c>
     </row>
@@ -4702,12 +4702,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>WASP-104b</t>
+          <t>WASP-34b</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4722,14 +4722,14 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-104b_5209_2025-01-13_Altair1999_2606_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-34b_2118_2025-01-16_Altair1999_2606_R</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>WASP-34b</t>
+          <t>NGTS-9b</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4744,19 +4744,19 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>Lulin Observatory</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-34b_2118_2025-01-16_Altair1999_2606_R</t>
+          <t>https://www.exoclock.space/database/observations/NGTS-9b_2062_2025-01-16_Altair1999_2155_R</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>NGTS-9b</t>
+          <t>HAT-P-21b</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4766,29 +4766,29 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Lee YuHsien</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Lulin Observatory</t>
+          <t>KMSH Observatory</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/NGTS-9b_2062_2025-01-16_Altair1999_2155_R</t>
+          <t>https://www.exoclock.space/database/observations/HAT-P-21b_2217_2025-01-16_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>HAT-P-21b</t>
+          <t>TOI-1811b</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4803,46 +4803,46 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/HAT-P-21b_2217_2025-01-16_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/TOI-1811b_2463_2025-01-17_KMSHO_1635_R</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TOI-1811b</t>
+          <t>KPS-1b</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>KMSH Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-1811b_2463_2025-01-17_KMSHO_1635_R</t>
+          <t>https://www.exoclock.space/database/observations/KPS-1b_5374_2025-02-09_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>KPS-1b</t>
+          <t>K2-34b</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4857,19 +4857,19 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/KPS-1b_5374_2025-02-09_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/K2-34b_3063_2025-02-14_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>K2-34b</t>
+          <t>TOI-532b</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4879,24 +4879,24 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Starry House Observatory</t>
+          <t>Lulin Observatory</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-34b_3063_2025-02-14_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/TOI-532b_3945_2025-02-18_Altair1999_2155_R</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>TOI-532b</t>
+          <t>K2-19b</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4911,19 +4911,19 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/TOI-532b_3945_2025-02-18_Altair1999_2155_R</t>
+          <t>https://www.exoclock.space/database/observations/K2-19b_1159_2025-02-19_Altair1999_2155_R</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>K2-19b</t>
+          <t>WASP-36b</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4933,19 +4933,19 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Lulin Observatory</t>
+          <t>Starry House Observatory</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/K2-19b_1159_2025-02-19_Altair1999_2155_R</t>
+          <t>https://www.exoclock.space/database/observations/WASP-36b_5983_2025-03-08_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>WASP-36b</t>
+          <t>Qatar-6b</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4965,34 +4965,223 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://www.exoclock.space/database/observations/WASP-36b_5983_2025-03-08_Altair1999_2435_Lum</t>
+          <t>https://www.exoclock.space/database/observations/Qatar-6b_2623_2025-03-08_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
+          <t>HAT-P-36b</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-36b_6938_2025-03-20_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
           <t>Qatar-6b</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Yen-Hsing Lin</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
         <is>
           <t>Starry House Observatory</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>https://www.exoclock.space/database/observations/Qatar-6b_2623_2025-03-08_Altair1999_2435_Lum</t>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/Qatar-6b_2627_2025-03-22_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>WASP-43b</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/WASP-43b_11324_2025-03-22_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>WASP-16b</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/WASP-16b_2954_2025-03-24_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>K2-140b</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/K2-140b_1402_2025-03-26_Altair1999_2435_V</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>WASP-135b</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/WASP-135b_6587_2025-04-10_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>HAT-P-23b</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/HAT-P-23b_7677_2025-06-30_Altair1999_2435_Lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Kepler-17b</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Yen-Hsing Lin</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Starry House Observatory</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://www.exoclock.space/database/observations/Kepler-17b_6268_2025-07-01_Altair1999_2435_Lum</t>
         </is>
       </c>
     </row>
